--- a/src/web/KINT_v1.0.0/News_ref.xlsx
+++ b/src/web/KINT_v1.0.0/News_ref.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145D3678-CDE5-4868-A86E-D55EB38AE386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="4365" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -799,12 +793,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -812,15 +806,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -866,23 +853,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -924,7 +903,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -956,27 +935,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,24 +969,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1201,17 +1144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>303</v>
       </c>
@@ -1234,4950 +1174,4948 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.17586851079293739</v>
+        <v>0.0004495570540790691</v>
       </c>
       <c r="C2">
-        <v>0.27241501395301398</v>
+        <v>0.0006963503051652808</v>
       </c>
       <c r="D2">
-        <v>0.15568586601998771</v>
+        <v>0.0003979659518019014</v>
       </c>
       <c r="E2">
-        <v>2.0370660500958079E-2</v>
+        <v>5.207171018373875e-05</v>
       </c>
       <c r="F2">
-        <v>7.3942285367145949E-2</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G2">
-        <v>0.28346388692348851</v>
+        <v>0.0007245935578152591</v>
       </c>
       <c r="H2">
-        <v>1.8253776442468221E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.243761651388135E-2</v>
+        <v>0.000502446119264842</v>
       </c>
       <c r="C3">
-        <v>0.10039276736516831</v>
+        <v>0.0006963503051652808</v>
       </c>
       <c r="D3">
-        <v>0.14753499220942001</v>
+        <v>0.001023341018919175</v>
       </c>
       <c r="E3">
-        <v>0.1868750163972327</v>
+        <v>0.001296213642788068</v>
       </c>
       <c r="F3">
-        <v>0.19074901129403951</v>
+        <v>0.001323084677419355</v>
       </c>
       <c r="G3">
-        <v>0.1149988396792327</v>
+        <v>0.0007976618157462096</v>
       </c>
       <c r="H3">
-        <v>0.18701175654102559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.001297162107935086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.28940128059621367</v>
+        <v>0.0001322226629644321</v>
       </c>
       <c r="C4">
-        <v>0.17930953878254741</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D4">
-        <v>8.2956642625911903E-2</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="E4">
-        <v>0.1221123569041042</v>
+        <v>5.57911180540058e-05</v>
       </c>
       <c r="F4">
-        <v>0.1378995643365149</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G4">
-        <v>0.106618371072236</v>
+        <v>4.8712171953967e-05</v>
       </c>
       <c r="H4">
-        <v>8.1702245682472044E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.8347628839042769E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C5">
-        <v>0.2246670525394342</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D5">
-        <v>0.20788212957184701</v>
+        <v>0.0001137045576576861</v>
       </c>
       <c r="E5">
-        <v>6.8000654041077233E-2</v>
+        <v>3.719407870267054e-05</v>
       </c>
       <c r="G5">
-        <v>0.17811757506408349</v>
+        <v>9.7424343907934e-05</v>
       </c>
       <c r="H5">
-        <v>0.27298495994451538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001493136239349739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.0416846330013242E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C6">
-        <v>0.46791935525528422</v>
+        <v>0.0002048089132839061</v>
       </c>
       <c r="D6">
-        <v>7.2160166892058064E-2</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E6">
-        <v>4.2487968533241292E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="F6">
-        <v>0.1439429841210591</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G6">
-        <v>0.20867043572758789</v>
+        <v>9.133532241368812e-05</v>
       </c>
       <c r="H6">
-        <v>4.2641414820673407E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.25856704174043998</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C7">
-        <v>0.1001281354546219</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D7">
-        <v>0.26250136700996579</v>
+        <v>0.0001073876377878147</v>
       </c>
       <c r="E7">
-        <v>0.29548432475170988</v>
+        <v>0.0001208807557836792</v>
       </c>
       <c r="G7">
-        <v>1.488417567346821E-2</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H7">
-        <v>6.843495536979434E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1351092566417271</v>
+        <v>0.0002115562607430914</v>
       </c>
       <c r="C8">
-        <v>0.26160019968392401</v>
+        <v>0.0004096178265678122</v>
       </c>
       <c r="D8">
-        <v>0.15733639576795541</v>
+        <v>0.0002463598749249865</v>
       </c>
       <c r="E8">
-        <v>8.0762907441063625E-2</v>
+        <v>0.0001264598675890798</v>
       </c>
       <c r="F8">
-        <v>0.1609487317258981</v>
+        <v>0.0002520161290322581</v>
       </c>
       <c r="G8">
-        <v>0.1088841739613602</v>
+        <v>0.0001704926018388845</v>
       </c>
       <c r="H8">
-        <v>9.5358334778071624E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001493136239349739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.36535414137864419</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C9">
-        <v>0.14148063384501519</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D9">
-        <v>0.26182117159091811</v>
+        <v>7.580303843845741e-05</v>
       </c>
       <c r="G9">
-        <v>0.23134405318542239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.697923643670462e-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1209683881395649</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C10">
-        <v>0.37475276266723839</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D10">
-        <v>0.28896242048562237</v>
+        <v>6.316919869871451e-05</v>
       </c>
       <c r="E10">
-        <v>0.1020847935170195</v>
+        <v>2.231644722160232e-05</v>
       </c>
       <c r="G10">
-        <v>2.7853739252862719E-2</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H10">
-        <v>8.5377895937692266E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.6261395479778467E-2</v>
+        <v>0.0004760015866719556</v>
       </c>
       <c r="C11">
-        <v>0.13253866273680501</v>
+        <v>0.0006553885225084996</v>
       </c>
       <c r="D11">
-        <v>0.22100150129382221</v>
+        <v>0.001092827137487761</v>
       </c>
       <c r="E11">
-        <v>0.151186709870406</v>
+        <v>0.0007476009819236777</v>
       </c>
       <c r="F11">
-        <v>0.1274125178535164</v>
+        <v>0.0006300403225806451</v>
       </c>
       <c r="G11">
-        <v>0.1810125117551841</v>
+        <v>0.0008950861596541435</v>
       </c>
       <c r="H11">
-        <v>9.0586701010487977E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0004479408718049217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1226071138061411</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C12">
-        <v>0.18991471791992889</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D12">
-        <v>0.25382665997717457</v>
+        <v>0.0001642399166166577</v>
       </c>
       <c r="E12">
-        <v>4.5985648129923631E-2</v>
+        <v>2.975526296213643e-05</v>
       </c>
       <c r="G12">
-        <v>0.30113137322562911</v>
+        <v>0.000194848687815868</v>
       </c>
       <c r="H12">
-        <v>8.6534486941202637E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.599260897561522e-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.16128588645663691</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="D13">
-        <v>0.1284235241329022</v>
+        <v>6.316919869871451e-05</v>
       </c>
       <c r="E13">
-        <v>0.30246352730579612</v>
+        <v>0.0001487763148106821</v>
       </c>
       <c r="F13">
-        <v>0.12808773933882989</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G13">
-        <v>0.2228225950078935</v>
+        <v>0.0001096023868964257</v>
       </c>
       <c r="H13">
-        <v>5.6916727757941377E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.15559629506997261</v>
+        <v>0.0001851117281502049</v>
       </c>
       <c r="C14">
-        <v>0.17215283128049499</v>
+        <v>0.0002048089132839061</v>
       </c>
       <c r="D14">
-        <v>5.8406794189138647E-2</v>
+        <v>6.948611856858596e-05</v>
       </c>
       <c r="E14">
-        <v>0.1000435514703736</v>
+        <v>0.0001190210518485457</v>
       </c>
       <c r="F14">
-        <v>0.26479127205460717</v>
+        <v>0.0003150201612903226</v>
       </c>
       <c r="G14">
-        <v>9.2126660489451437E-2</v>
+        <v>0.0001096023868964257</v>
       </c>
       <c r="H14">
-        <v>0.1568825954459615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001866420299187174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.21888901003427669</v>
+        <v>0.0006082242496363877</v>
       </c>
       <c r="C15">
-        <v>4.4224235026845138E-2</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D15">
-        <v>0.12730739181491579</v>
+        <v>0.0003537475127128013</v>
       </c>
       <c r="E15">
-        <v>8.7674910555715829E-2</v>
+        <v>0.000243621215502492</v>
       </c>
       <c r="F15">
-        <v>0.20406620143215171</v>
+        <v>0.0005670362903225807</v>
       </c>
       <c r="G15">
-        <v>0.2103676550613886</v>
+        <v>0.000584546063447604</v>
       </c>
       <c r="H15">
-        <v>0.1074705960747061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002986272478699479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.113573102289311</v>
+        <v>0.0003173343911146371</v>
       </c>
       <c r="C16">
-        <v>0.17592130680663151</v>
+        <v>0.0004915413918813746</v>
       </c>
       <c r="D16">
-        <v>0.22834162595943469</v>
+        <v>0.0006380089068570165</v>
       </c>
       <c r="E16">
-        <v>6.4561541588840934E-2</v>
+        <v>0.0001803912817079521</v>
       </c>
       <c r="F16">
-        <v>0.11274484582572809</v>
+        <v>0.0003150201612903226</v>
       </c>
       <c r="G16">
-        <v>0.1111414429035423</v>
+        <v>0.0003105400962065396</v>
       </c>
       <c r="H16">
-        <v>0.19371613462651149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0005412618867642804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1131522932674718</v>
+        <v>0.0001322226629644321</v>
       </c>
       <c r="C17">
-        <v>3.5053897267107233E-2</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D17">
-        <v>7.5681697455838068E-2</v>
+        <v>8.843687817820032e-05</v>
       </c>
       <c r="E17">
-        <v>4.6152929081073372E-2</v>
+        <v>5.393141411887227e-05</v>
       </c>
       <c r="F17">
-        <v>0.10783402141908879</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G17">
-        <v>0.52629148262906145</v>
+        <v>0.0006149911709188333</v>
       </c>
       <c r="H17">
-        <v>9.5833678880359333E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001119852179512304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.9250183930360726E-2</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C18">
-        <v>0.46482125874528157</v>
+        <v>0.0005325031745381559</v>
       </c>
       <c r="D18">
-        <v>8.8224484981997739E-2</v>
+        <v>0.0001010707179179432</v>
       </c>
       <c r="E18">
-        <v>6.1686650302766287E-2</v>
+        <v>7.066874953507402e-05</v>
       </c>
       <c r="G18">
-        <v>0.2019737295305577</v>
+        <v>0.0002313828167813432</v>
       </c>
       <c r="H18">
-        <v>0.1140436925090359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001306494209431022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.36583699702343769</v>
+        <v>0.0003702234563004099</v>
       </c>
       <c r="C19">
-        <v>8.0952923456713913E-2</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D19">
-        <v>0.14980982687966321</v>
+        <v>0.0001516060768769148</v>
       </c>
       <c r="E19">
-        <v>4.4104077669019352E-2</v>
+        <v>4.463289444320464e-05</v>
       </c>
       <c r="F19">
-        <v>0.24903020669717199</v>
+        <v>0.0002520161290322581</v>
       </c>
       <c r="G19">
-        <v>1.8050633748542499E-2</v>
+        <v>1.826706448273762e-05</v>
       </c>
       <c r="H19">
-        <v>9.221533452545129E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.33210149593587e-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.8526475788935748E-2</v>
+        <v>0.0007404469126008197</v>
       </c>
       <c r="C20">
-        <v>0.86882243124523995</v>
+        <v>0.008192356531356245</v>
       </c>
       <c r="E20">
-        <v>1.9722682821905489E-4</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="H20">
-        <v>5.2453866137605207E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0004946013792846011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.4328852779505161E-3</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D21">
-        <v>5.8592339938271433E-2</v>
+        <v>0.0002084583557057579</v>
       </c>
       <c r="E21">
-        <v>0.21431333832131311</v>
+        <v>0.000762478613404746</v>
       </c>
       <c r="F21">
-        <v>0.1770883044264735</v>
+        <v>0.0006300403225806451</v>
       </c>
       <c r="G21">
-        <v>0.37994612194133298</v>
+        <v>0.001351762771722584</v>
       </c>
       <c r="H21">
-        <v>0.16262701009465849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0005785902927480239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.6050200515933913E-2</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="C22">
-        <v>0.21399111119199279</v>
+        <v>0.0002457706959406873</v>
       </c>
       <c r="D22">
-        <v>0.1045020003085524</v>
+        <v>0.0001200214775275576</v>
       </c>
       <c r="E22">
-        <v>3.7242367447492132E-2</v>
+        <v>4.277319050807112e-05</v>
       </c>
       <c r="F22">
-        <v>0.16457173001291969</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G22">
-        <v>0.36051393354040911</v>
+        <v>0.0004140534616087195</v>
       </c>
       <c r="H22">
-        <v>7.3128656982699991E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8.398891346342283e-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.26814828898609883</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C23">
-        <v>0.13845120151844409</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="E23">
-        <v>3.7714898266790621E-2</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="G23">
-        <v>0.55568561122866666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001644035803446386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1135002580289864</v>
+        <v>0.0001322226629644321</v>
       </c>
       <c r="D24">
-        <v>0.15725132555966961</v>
+        <v>0.0001831906762262721</v>
       </c>
       <c r="E24">
-        <v>8.4607844097450119E-2</v>
+        <v>9.856430856207692e-05</v>
       </c>
       <c r="F24">
-        <v>0.32449689445812402</v>
+        <v>0.0003780241935483871</v>
       </c>
       <c r="G24">
-        <v>0.13589760542107909</v>
+        <v>0.0001583145588503927</v>
       </c>
       <c r="H24">
-        <v>0.18424607243469071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.000214638334406525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.27265150345329908</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="C25">
-        <v>0.21116447390911619</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D25">
-        <v>3.2564721907351338E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E25">
-        <v>4.7935340898081283E-2</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="F25">
-        <v>0.32479575992586018</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G25">
-        <v>6.2779739408673846E-2</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H25">
-        <v>4.8108460497618008E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1339661209014531</v>
+        <v>0.0003966679888932963</v>
       </c>
       <c r="C26">
-        <v>8.3003790798155869E-2</v>
+        <v>0.0002457706959406873</v>
       </c>
       <c r="D26">
-        <v>0.14720490676028469</v>
+        <v>0.0004358674710211301</v>
       </c>
       <c r="E26">
-        <v>5.0246015144322427E-2</v>
+        <v>0.0001487763148106821</v>
       </c>
       <c r="F26">
-        <v>0.21278263028765321</v>
+        <v>0.0006300403225806451</v>
       </c>
       <c r="G26">
-        <v>0.15217631199323919</v>
+        <v>0.0004505875905741947</v>
       </c>
       <c r="H26">
-        <v>0.22062022411489149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0006532471047155109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.59965303722120955</v>
+        <v>0.0007404469126008197</v>
       </c>
       <c r="C27">
-        <v>0.19903809682066381</v>
+        <v>0.0002457706959406873</v>
       </c>
       <c r="D27">
-        <v>0.1125470613362634</v>
+        <v>0.0001389722371371719</v>
       </c>
       <c r="G27">
-        <v>8.8761804621863227E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001096023868964257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.4570734271256143E-3</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C28">
-        <v>0.11718976992479579</v>
+        <v>0.0003276942612542498</v>
       </c>
       <c r="D28">
-        <v>6.0994404816413807E-2</v>
+        <v>0.0001705568364865292</v>
       </c>
       <c r="E28">
-        <v>1.330131784745797E-3</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="F28">
-        <v>0.22531453606776411</v>
+        <v>0.0006300403225806451</v>
       </c>
       <c r="G28">
-        <v>0.48559391498037141</v>
+        <v>0.00135785179321683</v>
       </c>
       <c r="H28">
-        <v>0.10012016899878361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002799630448780761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.23029897053624071</v>
+        <v>0.0003437789237075235</v>
       </c>
       <c r="C29">
-        <v>5.488094660050568E-2</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D29">
-        <v>5.0780779483584657E-2</v>
+        <v>7.580303843845741e-05</v>
       </c>
       <c r="E29">
-        <v>5.6062062710254899E-2</v>
+        <v>8.36866770810087e-05</v>
       </c>
       <c r="F29">
-        <v>0.37986003478526043</v>
+        <v>0.0005670362903225807</v>
       </c>
       <c r="G29">
-        <v>0.14684621499389031</v>
+        <v>0.0002192047737928515</v>
       </c>
       <c r="H29">
-        <v>8.1270990890263281E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001213173194471663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.5568498085473547E-2</v>
+        <v>0.0002380007933359778</v>
       </c>
       <c r="C30">
-        <v>8.2240399129384203E-2</v>
+        <v>0.0002048089132839061</v>
       </c>
       <c r="D30">
-        <v>6.8486581379656658E-2</v>
+        <v>0.0001705568364865292</v>
       </c>
       <c r="E30">
-        <v>2.2402754563107079E-3</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="F30">
-        <v>0.15179447056040751</v>
+        <v>0.0003780241935483871</v>
       </c>
       <c r="G30">
-        <v>0.56969155854513542</v>
+        <v>0.001418742008159289</v>
       </c>
       <c r="H30">
-        <v>2.9978216843631781E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.465681196748696e-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.18826363712724739</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D31">
-        <v>0.26982809530843088</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="E31">
-        <v>1.3239584612748011E-2</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="G31">
-        <v>0.13004669252816531</v>
+        <v>1.826706448273762e-05</v>
       </c>
       <c r="H31">
-        <v>0.39862199042340829</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.599260897561522e-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.12089709355019131</v>
+        <v>0.0001586671955573185</v>
       </c>
       <c r="C32">
-        <v>3.1210991361163339E-2</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D32">
-        <v>0.1010772406058033</v>
+        <v>0.0001326553172673005</v>
       </c>
       <c r="E32">
-        <v>0.30749089352398551</v>
+        <v>0.0004035557539239753</v>
       </c>
       <c r="F32">
-        <v>0.336043190820348</v>
+        <v>0.0004410282258064516</v>
       </c>
       <c r="G32">
-        <v>4.6395538701825521E-2</v>
+        <v>6.089021494245874e-05</v>
       </c>
       <c r="H32">
-        <v>5.6885051436683043E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.465681196748696e-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.26387607654665912</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="E33">
-        <v>6.1856690189515701E-2</v>
+        <v>1.859703935133527e-05</v>
       </c>
       <c r="F33">
-        <v>0.41912272490809449</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G33">
-        <v>0.16202437775659201</v>
+        <v>4.8712171953967e-05</v>
       </c>
       <c r="H33">
-        <v>9.3120130599138776E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.24135839707938961</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="C34">
-        <v>0.1869284353737172</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D34">
-        <v>2.8827162078131189E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E34">
-        <v>4.2433644766593753E-2</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="F34">
-        <v>0.2875178863897781</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="H34">
-        <v>0.21293447431239021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.3321524924973828E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C35">
-        <v>0.129062526729115</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D35">
-        <v>9.9516865071788169E-2</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E35">
-        <v>4.6876492822106451E-2</v>
+        <v>1.487763148106821e-05</v>
       </c>
       <c r="F35">
-        <v>0.39702664630013668</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G35">
-        <v>3.8370620045520117E-2</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H35">
-        <v>0.20582532410635981</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.532471047155108e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.15952014792003649</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D36">
-        <v>0.1905263381951354</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E36">
-        <v>0.33654621700491971</v>
+        <v>5.57911180540058e-05</v>
       </c>
       <c r="G36">
-        <v>0.2571136866295638</v>
+        <v>4.262315045972112e-05</v>
       </c>
       <c r="H36">
-        <v>5.6293610250344642E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.29297449556430633</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D37">
-        <v>6.9984084834744595E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E37">
-        <v>0.16482675816059281</v>
+        <v>1.487763148106821e-05</v>
       </c>
       <c r="G37">
-        <v>0.47221466144035618</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.262315045972112e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.15977727693222879</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="D38">
-        <v>0.12722229719407119</v>
+        <v>6.316919869871451e-05</v>
       </c>
       <c r="E38">
-        <v>0.1161083274709013</v>
+        <v>5.765082198913933e-05</v>
       </c>
       <c r="F38">
-        <v>0.12688965320884221</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G38">
-        <v>0.28205461390615061</v>
+        <v>0.0001400474943676551</v>
       </c>
       <c r="H38">
-        <v>0.18794783128780609</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.33210149593587e-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1279525826273083</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C39">
-        <v>0.59458406325134094</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D39">
-        <v>9.1693760374940703E-2</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E39">
-        <v>8.9982275385919498E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="G39">
-        <v>0.17677136620781819</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.653412896547525e-05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1454751063484232</v>
+        <v>0.0002908898585217506</v>
       </c>
       <c r="C40">
-        <v>0.24582168873806989</v>
+        <v>0.0004915413918813746</v>
       </c>
       <c r="D40">
-        <v>0.1042508034471234</v>
+        <v>0.0002084583557057579</v>
       </c>
       <c r="E40">
-        <v>2.511121214780113E-2</v>
+        <v>5.021200624860522e-05</v>
       </c>
       <c r="F40">
-        <v>6.3017104409888475E-2</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G40">
-        <v>0.31364966986225501</v>
+        <v>0.0006271692139073251</v>
       </c>
       <c r="H40">
-        <v>0.1026744150464389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002053062329105891</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.14685461482936321</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C41">
-        <v>5.6868341250280258E-2</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D41">
-        <v>0.1578590863774085</v>
+        <v>0.0001137045576576861</v>
       </c>
       <c r="E41">
-        <v>2.84006452510117E-2</v>
+        <v>2.045674328646879e-05</v>
       </c>
       <c r="F41">
-        <v>0.26241056230023158</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G41">
-        <v>0.1014426218067168</v>
+        <v>7.30682579309505e-05</v>
       </c>
       <c r="H41">
-        <v>0.2461641281849879</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001773099284227815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.1334119013555289E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D42">
-        <v>0.13472849745084919</v>
+        <v>0.0001137045576576861</v>
       </c>
       <c r="E42">
-        <v>0.13441732191540801</v>
+        <v>0.0001134419400431451</v>
       </c>
       <c r="F42">
-        <v>0.1493069191655233</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G42">
-        <v>0.46175230756771579</v>
+        <v>0.000389697375631736</v>
       </c>
       <c r="H42">
-        <v>8.8460834886948544E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.465681196748696e-05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.4717068066709079E-2</v>
+        <v>0.0001586671955573185</v>
       </c>
       <c r="C43">
-        <v>0.52879428861408284</v>
+        <v>0.002416745176750092</v>
       </c>
       <c r="D43">
-        <v>0.15618513836214301</v>
+        <v>0.0007138119452954739</v>
       </c>
       <c r="E43">
-        <v>2.1159385400399029E-2</v>
+        <v>9.670460462694339e-05</v>
       </c>
       <c r="F43">
-        <v>5.5142218117548887E-2</v>
+        <v>0.0002520161290322581</v>
       </c>
       <c r="G43">
-        <v>0.16520572285705301</v>
+        <v>0.0007550386652864884</v>
       </c>
       <c r="H43">
-        <v>3.8796178582064127E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001773099284227815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.38876111357146598</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="E44">
-        <v>6.3792190835338658E-2</v>
+        <v>1.301792754593469e-05</v>
       </c>
       <c r="F44">
-        <v>0.30874079111443598</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G44">
-        <v>0.23870590447875931</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.8712171953967e-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.26579063256663649</v>
+        <v>0.000687557847415047</v>
       </c>
       <c r="C45">
-        <v>0.15834679459095499</v>
+        <v>0.0004096178265678122</v>
       </c>
       <c r="D45">
-        <v>9.2793892335214567E-2</v>
+        <v>0.0002400429550551151</v>
       </c>
       <c r="E45">
-        <v>3.8102204810402468E-2</v>
+        <v>9.856430856207692e-05</v>
       </c>
       <c r="F45">
-        <v>0.19484477300146091</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="G45">
-        <v>0.2212614673669881</v>
+        <v>0.0005723680204591122</v>
       </c>
       <c r="H45">
-        <v>2.886023532834241E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.465681196748696e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.8061502757117172E-2</v>
+        <v>0.0001851117281502049</v>
       </c>
       <c r="C46">
-        <v>5.0533816061479629E-2</v>
+        <v>0.0002457706959406873</v>
       </c>
       <c r="D46">
-        <v>0.2441828808141179</v>
+        <v>0.001187580935535833</v>
       </c>
       <c r="E46">
-        <v>1.873664748814011E-2</v>
+        <v>9.11254928215428e-05</v>
       </c>
       <c r="F46">
-        <v>0.25908981256487362</v>
+        <v>0.00126008064516129</v>
       </c>
       <c r="G46">
-        <v>9.3898956608788151E-2</v>
+        <v>0.0004566766120684406</v>
       </c>
       <c r="H46">
-        <v>0.29549638370548342</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.001437143630374124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.28554753814972311</v>
+        <v>0.0001851117281502049</v>
       </c>
       <c r="D47">
-        <v>0.22411849058826849</v>
+        <v>0.0001452891570070434</v>
       </c>
       <c r="E47">
-        <v>0.2266289498133417</v>
+        <v>0.0001469166108755486</v>
       </c>
       <c r="F47">
-        <v>9.7188041430837591E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G47">
-        <v>6.5749133259037806E-2</v>
+        <v>4.262315045972112e-05</v>
       </c>
       <c r="H47">
-        <v>0.10076784675879109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.532471047155108e-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.41056562813689529</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D48">
-        <v>9.8073587239800988E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E48">
-        <v>0.34647487676850469</v>
+        <v>2.231644722160232e-05</v>
       </c>
       <c r="H48">
-        <v>0.14488590785479899</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1123028526112254</v>
+        <v>0.0003702234563004099</v>
       </c>
       <c r="C49">
-        <v>0.2360800599750025</v>
+        <v>0.0007782738704788432</v>
       </c>
       <c r="D49">
-        <v>0.13796366451178391</v>
+        <v>0.0004548182306307444</v>
       </c>
       <c r="E49">
-        <v>0.2132369523735852</v>
+        <v>0.0007029680874804731</v>
       </c>
       <c r="F49">
-        <v>0.1146691128535469</v>
+        <v>0.0003780241935483871</v>
       </c>
       <c r="G49">
-        <v>4.986985761707198E-2</v>
+        <v>0.0001644035803446386</v>
       </c>
       <c r="H49">
-        <v>0.1358775000577841</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0004479408718049217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.13150801324081379</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C50">
-        <v>0.15277645682734731</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D50">
-        <v>0.1178020795466356</v>
+        <v>9.475379804807176e-05</v>
       </c>
       <c r="E50">
-        <v>0.1086670802057597</v>
+        <v>8.740608495127576e-05</v>
       </c>
       <c r="F50">
-        <v>0.2349881325936258</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G50">
-        <v>4.5420832253863841E-2</v>
+        <v>3.653412896547525e-05</v>
       </c>
       <c r="H50">
-        <v>0.2088374053319538</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001679778269268457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.468095276242057E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C51">
-        <v>0.42053055813788848</v>
+        <v>0.0004505796092245935</v>
       </c>
       <c r="D51">
-        <v>0.25351277492542978</v>
+        <v>0.0002716275544044724</v>
       </c>
       <c r="E51">
-        <v>2.2563849165443239E-2</v>
+        <v>2.417615115673585e-05</v>
       </c>
       <c r="H51">
-        <v>0.27871186500881778</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002986272478699479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.8180040663186396E-2</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="C52">
-        <v>6.8294110467341032E-2</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D52">
-        <v>0.21063947681238071</v>
+        <v>0.000126338397397429</v>
       </c>
       <c r="E52">
-        <v>1.5503088213560929E-2</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="F52">
-        <v>0.2100887246521165</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G52">
-        <v>0.1116720776181645</v>
+        <v>6.697923643670462e-05</v>
       </c>
       <c r="H52">
-        <v>0.29562248157324988</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001773099284227815</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.66391229984792588</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="D53">
-        <v>7.9295801202581451E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E53">
-        <v>0.25679189894949273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.045674328646879e-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.14730246485152571</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="C54">
-        <v>0.11408353558269051</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D54">
-        <v>0.19352727264446759</v>
+        <v>6.948611856858596e-05</v>
       </c>
       <c r="E54">
-        <v>0.10876952398606091</v>
+        <v>3.905378263780406e-05</v>
       </c>
       <c r="G54">
-        <v>0.25437995684529818</v>
+        <v>9.133532241368812e-05</v>
       </c>
       <c r="H54">
-        <v>0.18193724608995729</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.532471047155108e-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.14073226176415349</v>
+        <v>0.0002644453259288642</v>
       </c>
       <c r="C55">
-        <v>4.3598004985962099E-2</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D55">
-        <v>0.24876819773048761</v>
+        <v>0.0004674520703704874</v>
       </c>
       <c r="E55">
-        <v>0.1326191929134003</v>
+        <v>0.0002492003273078926</v>
       </c>
       <c r="F55">
-        <v>0.13411770359403891</v>
+        <v>0.0002520161290322581</v>
       </c>
       <c r="G55">
-        <v>5.1847194579421191E-2</v>
+        <v>9.7424343907934e-05</v>
       </c>
       <c r="H55">
-        <v>0.2483174444325365</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0004666050747967935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.13976169023084301</v>
+        <v>0.0006611133148221605</v>
       </c>
       <c r="C56">
-        <v>0.1558703800260974</v>
+        <v>0.000737312087822062</v>
       </c>
       <c r="D56">
-        <v>0.1829524271003109</v>
+        <v>0.0008654180221723888</v>
       </c>
       <c r="E56">
-        <v>0.1037910671312164</v>
+        <v>0.0004909618388752511</v>
       </c>
       <c r="F56">
-        <v>2.6638549980238541E-2</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G56">
-        <v>4.376618224360887E-2</v>
+        <v>0.0002070267308043597</v>
       </c>
       <c r="H56">
-        <v>0.34721970328768498</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.001642449863284713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.23279140736782061</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="D57">
-        <v>0.33364734163598619</v>
+        <v>7.580303843845741e-05</v>
       </c>
       <c r="E57">
-        <v>2.4556480332554489E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="G57">
-        <v>8.0402548891318273E-2</v>
+        <v>1.826706448273762e-05</v>
       </c>
       <c r="H57">
-        <v>0.3286022217723204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.465681196748696e-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.2200657897691799</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C58">
-        <v>0.34087526482290331</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D58">
-        <v>7.0090755946824498E-2</v>
+        <v>2.52676794794858e-05</v>
       </c>
       <c r="E58">
-        <v>9.2856369561722135E-2</v>
+        <v>3.347467083240348e-05</v>
       </c>
       <c r="F58">
-        <v>0.17476872984126221</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G58">
-        <v>0.101343090058108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.653412896547525e-05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.13556599050907919</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D59">
-        <v>6.4766468918869627E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E59">
-        <v>0.47668190983233172</v>
+        <v>9.298519675667633e-05</v>
       </c>
       <c r="F59">
-        <v>0.32298563073971948</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.300403225806451e-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>9.1056597642549114E-2</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C60">
-        <v>0.32910248199690001</v>
+        <v>0.0002867324785974686</v>
       </c>
       <c r="D60">
-        <v>0.13050649972595921</v>
+        <v>0.0001137045576576861</v>
       </c>
       <c r="E60">
-        <v>0.13020507552321689</v>
+        <v>0.0001134419400431451</v>
       </c>
       <c r="G60">
-        <v>0.26557388847838148</v>
+        <v>0.0002313828167813432</v>
       </c>
       <c r="H60">
-        <v>5.3555456632993249E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.14174074457049701</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C61">
-        <v>0.58547235827177813</v>
+        <v>0.0003276942612542498</v>
       </c>
       <c r="D61">
-        <v>2.2572149778100691E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="G61">
-        <v>0.25021474737962401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001400474943676551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1082702404524363</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C62">
-        <v>0.16770733390852741</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D62">
-        <v>0.12931490296291581</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E62">
-        <v>0.1294392349662481</v>
+        <v>3.161496689726995e-05</v>
       </c>
       <c r="G62">
-        <v>0.2742290115679088</v>
+        <v>6.697923643670462e-05</v>
       </c>
       <c r="H62">
-        <v>0.19103927614196359</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.13081349650367211</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D63">
-        <v>0.31247985662400818</v>
+        <v>6.316919869871451e-05</v>
       </c>
       <c r="E63">
-        <v>3.6797681843980967E-2</v>
+        <v>7.438815740534107e-06</v>
       </c>
       <c r="G63">
-        <v>0.1506031897426281</v>
+        <v>3.044510747122937e-05</v>
       </c>
       <c r="H63">
-        <v>0.36930577528571062</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.465681196748696e-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>8.4712692967447267E-2</v>
+        <v>0.0001586671955573185</v>
       </c>
       <c r="C64">
-        <v>8.7478269352777041E-2</v>
+        <v>0.0001638471306271249</v>
       </c>
       <c r="D64">
-        <v>0.15176765505972739</v>
+        <v>0.0002842613941442153</v>
       </c>
       <c r="E64">
-        <v>1.390058852931397E-2</v>
+        <v>2.603585509186938e-05</v>
       </c>
       <c r="F64">
-        <v>0.40365555501058697</v>
+        <v>0.0007560483870967742</v>
       </c>
       <c r="G64">
-        <v>0.10403005490881551</v>
+        <v>0.000194848687815868</v>
       </c>
       <c r="H64">
-        <v>0.15445518417133211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002892951463740119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.98048232880424269</v>
+        <v>0.0003173343911146371</v>
       </c>
       <c r="D65">
-        <v>1.9517671195757369E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.316919869871451e-06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.61568070800745067</v>
+        <v>0.0005553351844506148</v>
       </c>
       <c r="C66">
-        <v>9.082579333532971E-2</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D66">
-        <v>7.7036830863363284E-2</v>
+        <v>6.948611856858596e-05</v>
       </c>
       <c r="E66">
-        <v>2.0617887494378151E-2</v>
+        <v>1.859703935133527e-05</v>
       </c>
       <c r="F66">
-        <v>6.9850368343479213E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G66">
-        <v>7.4257538268432829E-2</v>
+        <v>6.697923643670462e-05</v>
       </c>
       <c r="H66">
-        <v>5.1730873687566008E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.38945426000142153</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="E67">
-        <v>0.38343557946022572</v>
+        <v>2.603585509186938e-05</v>
       </c>
       <c r="G67">
-        <v>8.967431554499028E-2</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H67">
-        <v>0.13743584499336259</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.38721615079364302</v>
+        <v>0.0005288906518577285</v>
       </c>
       <c r="C68">
-        <v>0.38986098318396117</v>
+        <v>0.0005325031745381559</v>
       </c>
       <c r="D68">
-        <v>7.3996797282519733E-2</v>
+        <v>0.0001010707179179432</v>
       </c>
       <c r="E68">
-        <v>6.8077153268716103E-3</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="F68">
-        <v>4.6127075170935013E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G68">
-        <v>8.9158976692818651E-2</v>
+        <v>0.0001217804298849175</v>
       </c>
       <c r="H68">
-        <v>6.8323015492509163E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1915584856706154</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C69">
-        <v>0.22253873353236969</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D69">
-        <v>0.16015441378806819</v>
+        <v>8.843687817820032e-05</v>
       </c>
       <c r="E69">
-        <v>4.0413881586890882E-2</v>
+        <v>2.231644722160232e-05</v>
       </c>
       <c r="F69">
-        <v>0.11409690233799021</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G69">
-        <v>0.22053778650777331</v>
+        <v>0.0001217804298849175</v>
       </c>
       <c r="H69">
-        <v>5.0699796576292179E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.9944615329341629E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C70">
-        <v>0.27864298764421042</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D70">
-        <v>0.15039821484320379</v>
+        <v>4.421843908910016e-05</v>
       </c>
       <c r="E70">
-        <v>0.1138559125868909</v>
+        <v>3.347467083240348e-05</v>
       </c>
       <c r="G70">
-        <v>0.14497223041316071</v>
+        <v>4.262315045972112e-05</v>
       </c>
       <c r="H70">
-        <v>0.2221860391831926</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.532471047155108e-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.56383397033611737</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="E71">
-        <v>0.43616602966388268</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.045674328646879e-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7.8168057992542062E-2</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C72">
-        <v>0.60539981013967514</v>
+        <v>0.0008192356531356244</v>
       </c>
       <c r="D72">
-        <v>0.16805107872077191</v>
+        <v>0.0002274091153153722</v>
       </c>
       <c r="E72">
-        <v>1.099429112916752E-2</v>
+        <v>1.487763148106821e-05</v>
       </c>
       <c r="G72">
-        <v>0.13049051372564599</v>
+        <v>0.0001765816233331304</v>
       </c>
       <c r="H72">
-        <v>6.8962482921973789E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.8969705593365405E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C73">
-        <v>0.1068319918491424</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D73">
-        <v>3.2950183721463161E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E73">
-        <v>4.8502741519993913E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="F73">
-        <v>0.65728059904564329</v>
+        <v>0.0002520161290322581</v>
       </c>
       <c r="G73">
-        <v>3.1761425038216072E-2</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H73">
-        <v>9.7355820600170326E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9.2227420563334522E-2</v>
+        <v>0.0003173343911146371</v>
       </c>
       <c r="C74">
-        <v>0.1071431176607492</v>
+        <v>0.000368656043911031</v>
       </c>
       <c r="D74">
-        <v>0.16155892736438079</v>
+        <v>0.0005558889485486877</v>
       </c>
       <c r="E74">
-        <v>3.9996174160744233E-2</v>
+        <v>0.000137618091199881</v>
       </c>
       <c r="F74">
-        <v>0.21973159706416931</v>
+        <v>0.0007560483870967742</v>
       </c>
       <c r="G74">
-        <v>0.22474712719586201</v>
+        <v>0.0007733057297692261</v>
       </c>
       <c r="H74">
-        <v>0.15459563599075979</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0005319297852683446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.21596753726583739</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D75">
-        <v>0.25794549830098978</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E75">
-        <v>4.5563559594441187E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="G75">
-        <v>9.9455792750504049E-2</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H75">
-        <v>0.38106761208822748</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7.9896347384922281E-2</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="C76">
-        <v>0.30939257530422681</v>
+        <v>0.0002048089132839061</v>
       </c>
       <c r="D76">
-        <v>8.5883337188489062E-2</v>
+        <v>5.685227882884305e-05</v>
       </c>
       <c r="E76">
-        <v>8.4280305075899245E-3</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="F76">
-        <v>9.5176423146447697E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G76">
-        <v>0.2943462584288703</v>
+        <v>0.000194848687815868</v>
       </c>
       <c r="H76">
-        <v>0.12687702803945389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8.398891346342283e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1136277493726458</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C77">
-        <v>0.17600595348898551</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D77">
-        <v>0.1628565115135947</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="E77">
-        <v>2.3972513627128999E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="F77">
-        <v>0.2707178265200732</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G77">
-        <v>5.2327021159673651E-2</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H77">
-        <v>0.2004924243178981</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.0669028116957878E-2</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="C78">
-        <v>0.1187634967274364</v>
+        <v>0.0002048089132839061</v>
       </c>
       <c r="D78">
-        <v>0.32234590899012372</v>
+        <v>0.0005558889485486877</v>
       </c>
       <c r="E78">
-        <v>1.401913716911767E-2</v>
+        <v>2.417615115673585e-05</v>
       </c>
       <c r="G78">
-        <v>0.2436299749703178</v>
+        <v>0.0004201424831029654</v>
       </c>
       <c r="H78">
-        <v>0.27057245402604641</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0004666050747967935</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.203604619373116</v>
+        <v>0.0001851117281502049</v>
       </c>
       <c r="D79">
-        <v>0.25707555597376869</v>
+        <v>0.0002337260351852437</v>
       </c>
       <c r="E79">
-        <v>0.1370478745355585</v>
+        <v>0.0001246001636539463</v>
       </c>
       <c r="F79">
-        <v>6.9298213219995519E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G79">
-        <v>0.10715715669271331</v>
+        <v>9.7424343907934e-05</v>
       </c>
       <c r="H79">
-        <v>0.22581658020484821</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002053062329105891</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8.1593253969032858E-2</v>
+        <v>0.0007668914451937062</v>
       </c>
       <c r="C80">
-        <v>0.36608210083445381</v>
+        <v>0.003440789743169623</v>
       </c>
       <c r="D80">
-        <v>8.5355094792472871E-2</v>
+        <v>0.0008022488234736742</v>
       </c>
       <c r="E80">
-        <v>3.7593933695745109E-3</v>
+        <v>3.533437476753701e-05</v>
       </c>
       <c r="F80">
-        <v>4.021980454201253E-2</v>
+        <v>0.0003780241935483871</v>
       </c>
       <c r="G80">
-        <v>0.41008282181319988</v>
+        <v>0.003854350605857639</v>
       </c>
       <c r="H80">
-        <v>1.290753067925365E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001213173194471663</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.30998831475417382</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D81">
-        <v>0.14809649881468159</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E81">
-        <v>0.1089991828686778</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="G81">
-        <v>0.2141303316524828</v>
+        <v>1.826706448273762e-05</v>
       </c>
       <c r="H81">
-        <v>0.2187856719099841</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.30322273170657738</v>
+        <v>0.0001322226629644321</v>
       </c>
       <c r="C82">
-        <v>0.18787314298913241</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D82">
-        <v>0.18832352584352349</v>
+        <v>8.211995830832885e-05</v>
       </c>
       <c r="E82">
-        <v>8.5296195785793533E-3</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="F82">
-        <v>0.144485478824146</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G82">
-        <v>0.16756550105804141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.30682579309505e-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.21453957161841711</v>
+        <v>0.0002644453259288642</v>
       </c>
       <c r="C83">
-        <v>6.6463063947490617E-2</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D83">
-        <v>0.22549117945296701</v>
+        <v>0.0002779444742743438</v>
       </c>
       <c r="E83">
-        <v>7.6945902874781022E-2</v>
+        <v>9.484490069180986e-05</v>
       </c>
       <c r="F83">
-        <v>5.11139988706555E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G83">
-        <v>0.13831747501736119</v>
+        <v>0.0001704926018388845</v>
       </c>
       <c r="H83">
-        <v>0.22712880821832751</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002799630448780761</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.8381807790510119E-2</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C84">
-        <v>0.25625578807943572</v>
+        <v>0.001105968131733093</v>
       </c>
       <c r="D84">
-        <v>0.1697830878059953</v>
+        <v>0.0007327627049050883</v>
       </c>
       <c r="E84">
-        <v>2.4130310353279189E-2</v>
+        <v>0.0001041434203674775</v>
       </c>
       <c r="F84">
-        <v>0.14598203578589969</v>
+        <v>0.0006300403225806451</v>
       </c>
       <c r="G84">
-        <v>0.23843240660473261</v>
+        <v>0.001029044632527553</v>
       </c>
       <c r="H84">
-        <v>0.1470345635801473</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0006345829017236392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1695434306521017</v>
+        <v>0.0003437789237075235</v>
       </c>
       <c r="C85">
-        <v>0.1010067906775587</v>
+        <v>0.0002048089132839061</v>
       </c>
       <c r="D85">
-        <v>0.18692110400641099</v>
+        <v>0.0003790151921922871</v>
       </c>
       <c r="E85">
-        <v>0.10547350286144939</v>
+        <v>0.0002138659525403556</v>
       </c>
       <c r="F85">
-        <v>9.3216183750424939E-2</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G85">
-        <v>0.13213014230736719</v>
+        <v>0.0002679169457468185</v>
       </c>
       <c r="H85">
-        <v>0.2117088457446869</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.00042927666881305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.989645028486611E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C86">
-        <v>0.2471935882558001</v>
+        <v>0.0001638471306271249</v>
       </c>
       <c r="D86">
-        <v>7.6241901014988123E-2</v>
+        <v>5.053535895897161e-05</v>
       </c>
       <c r="E86">
-        <v>2.8057060691851002E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="G86">
-        <v>0.63386235437516059</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0004201424831029654</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.7304631422470093E-2</v>
+        <v>0.0001322226629644321</v>
       </c>
       <c r="C87">
-        <v>0.33705785160804691</v>
+        <v>0.0009421210011059682</v>
       </c>
       <c r="D87">
-        <v>0.13559834273641691</v>
+        <v>0.0003790151921922871</v>
       </c>
       <c r="E87">
-        <v>2.8609484267406969E-2</v>
+        <v>7.996726921074165e-05</v>
       </c>
       <c r="F87">
-        <v>6.7621899089240406E-2</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G87">
-        <v>0.3136951199691429</v>
+        <v>0.0008768190951714059</v>
       </c>
       <c r="H87">
-        <v>7.0112670907275923E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001959741314146533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.32764227191894102</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="D88">
-        <v>0.117397989759781</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E88">
-        <v>6.9124037673592681E-2</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="F88">
-        <v>0.39030344356775298</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G88">
-        <v>3.7720856459278911E-2</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H88">
-        <v>5.7811400620653583E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.3184480772530092E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="G89">
-        <v>0.92681551922746985</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0003348961821835231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1376098913681354</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="D90">
-        <v>0.13148587958904751</v>
+        <v>5.053535895897161e-05</v>
       </c>
       <c r="E90">
-        <v>2.9032124760578221E-2</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="F90">
-        <v>0.49178282907819187</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G90">
-        <v>1.5842775504128478E-2</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H90">
-        <v>0.1942464996999185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.465681196748696e-05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.34824588827092129</v>
+        <v>0.0002644453259288642</v>
       </c>
       <c r="C91">
-        <v>0.16182671033832249</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D91">
-        <v>0.1830114031958735</v>
+        <v>0.0001389722371371719</v>
       </c>
       <c r="E91">
-        <v>3.6735433678210458E-2</v>
+        <v>2.78955590270029e-05</v>
       </c>
       <c r="F91">
-        <v>0.1659389902339326</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G91">
-        <v>0.10424157428273979</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.915727942519637e-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.12870726832819171</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="C92">
-        <v>9.9681836559017065E-2</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D92">
-        <v>0.27670375646047252</v>
+        <v>0.0001137045576576861</v>
       </c>
       <c r="E92">
-        <v>0.17197471115967561</v>
+        <v>7.066874953507402e-05</v>
       </c>
       <c r="G92">
-        <v>0.11854266216478269</v>
+        <v>4.8712171953967e-05</v>
       </c>
       <c r="H92">
-        <v>0.20438976532786049</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8.398891346342283e-05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1041025782098543</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C93">
-        <v>0.16125175091163069</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D93">
-        <v>0.12433716544030959</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E93">
-        <v>0.10981474545318121</v>
+        <v>2.78955590270029e-05</v>
       </c>
       <c r="F93">
-        <v>0.24802413022969011</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G93">
-        <v>0.21573251510108249</v>
+        <v>5.480119344821287e-05</v>
       </c>
       <c r="H93">
-        <v>3.6737114654251633E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.12850319855162309</v>
+        <v>0.0003966679888932963</v>
       </c>
       <c r="C94">
-        <v>0.21231741354107511</v>
+        <v>0.0006553885225084996</v>
       </c>
       <c r="D94">
-        <v>0.1105060132758072</v>
+        <v>0.0003411136729730583</v>
       </c>
       <c r="E94">
-        <v>9.9406443847217668E-2</v>
+        <v>0.0003068511492970319</v>
       </c>
       <c r="F94">
-        <v>0.14287398846021249</v>
+        <v>0.0004410282258064516</v>
       </c>
       <c r="G94">
-        <v>0.27616098701095931</v>
+        <v>0.0008524630091944225</v>
       </c>
       <c r="H94">
-        <v>3.0231955313105231E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.33210149593587e-05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.117834724793919</v>
+        <v>0.0007404469126008197</v>
       </c>
       <c r="C95">
-        <v>0.1173358487654073</v>
+        <v>0.000737312087822062</v>
       </c>
       <c r="D95">
-        <v>0.1377226276981687</v>
+        <v>0.0008654180221723888</v>
       </c>
       <c r="E95">
-        <v>2.4860076534713501E-2</v>
+        <v>0.0001562151305512162</v>
       </c>
       <c r="F95">
-        <v>0.19050277722574999</v>
+        <v>0.001197076612903226</v>
       </c>
       <c r="G95">
-        <v>0.23353066441179479</v>
+        <v>0.001467454180113256</v>
       </c>
       <c r="H95">
-        <v>0.17821328057024671</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.001119852179512304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.9743396033526971E-2</v>
+        <v>0.0001586671955573185</v>
       </c>
       <c r="C96">
-        <v>0.18024942753898029</v>
+        <v>0.0002867324785974686</v>
       </c>
       <c r="D96">
-        <v>0.1588409092577755</v>
+        <v>0.000252676794794858</v>
       </c>
       <c r="E96">
-        <v>1.169070805440199E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="F96">
-        <v>0.31685118624057651</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="G96">
-        <v>0.14928257557419991</v>
+        <v>0.0002374718382755891</v>
       </c>
       <c r="H96">
-        <v>9.3863434549500829E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001493136239349739</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.17783952950531029</v>
+        <v>0.0003966679888932963</v>
       </c>
       <c r="C97">
-        <v>7.3458149982859516E-2</v>
+        <v>0.0001638471306271249</v>
       </c>
       <c r="D97">
-        <v>0.13877223865488439</v>
+        <v>0.0003095290736237011</v>
       </c>
       <c r="E97">
-        <v>3.5018234514396472E-2</v>
+        <v>7.810756527560812e-05</v>
       </c>
       <c r="F97">
-        <v>2.8246815390806909E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G97">
-        <v>0.45043548615159468</v>
+        <v>0.001004688546550569</v>
       </c>
       <c r="H97">
-        <v>9.6229545800147517E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.000214638334406525</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.11384986086606939</v>
+        <v>0.0002380007933359778</v>
       </c>
       <c r="C98">
-        <v>7.837777666089403E-2</v>
+        <v>0.0001638471306271249</v>
       </c>
       <c r="D98">
-        <v>0.2205882257326611</v>
+        <v>0.0004611351505006159</v>
       </c>
       <c r="E98">
-        <v>6.7610088095710993E-2</v>
+        <v>0.000141337499070148</v>
       </c>
       <c r="F98">
-        <v>3.013855628815533E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G98">
-        <v>0.27962296705192557</v>
+        <v>0.000584546063447604</v>
       </c>
       <c r="H98">
-        <v>0.20981252530458361</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0004386087703089859</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7.7914783939518215E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D99">
-        <v>0.18611841411660279</v>
+        <v>6.316919869871451e-05</v>
       </c>
       <c r="E99">
-        <v>1.64380024250886E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="F99">
-        <v>0.55689532913423911</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G99">
-        <v>0.1076422415395317</v>
+        <v>3.653412896547525e-05</v>
       </c>
       <c r="H99">
-        <v>5.4991228845019578E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.12585161614666079</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C100">
-        <v>0.24367544262206489</v>
+        <v>0.0002048089132839061</v>
       </c>
       <c r="D100">
-        <v>0.2405017587359074</v>
+        <v>0.0002021414358358864</v>
       </c>
       <c r="E100">
-        <v>8.8504776920813391E-3</v>
+        <v>7.438815740534107e-06</v>
       </c>
       <c r="F100">
-        <v>7.4960289575761993E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G100">
-        <v>0.21733600124456451</v>
+        <v>0.0001826706448273762</v>
       </c>
       <c r="H100">
-        <v>8.8824413982959163E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.465681196748696e-05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.33593981055794631</v>
+        <v>0.0001851117281502049</v>
       </c>
       <c r="D101">
-        <v>0.24074218634121611</v>
+        <v>0.0001326553172673005</v>
       </c>
       <c r="E101">
-        <v>0.11474935809195889</v>
+        <v>6.32299337945399e-05</v>
       </c>
       <c r="G101">
-        <v>8.8402598698680335E-2</v>
+        <v>4.8712171953967e-05</v>
       </c>
       <c r="H101">
-        <v>0.22016604631019851</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001213173194471663</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>9.594691170193434E-2</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C102">
-        <v>0.14861886970092361</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D102">
-        <v>6.1118010018780568E-2</v>
+        <v>5.053535895897161e-05</v>
       </c>
       <c r="E102">
-        <v>2.4740606713590171E-2</v>
+        <v>2.045674328646879e-05</v>
       </c>
       <c r="G102">
-        <v>0.52285312282898766</v>
+        <v>0.0004323205260914571</v>
       </c>
       <c r="H102">
-        <v>0.14672247903578359</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001213173194471663</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>3.4510544818163513E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D103">
-        <v>0.123655246419777</v>
+        <v>9.475379804807176e-05</v>
       </c>
       <c r="E103">
-        <v>0.65527484214961373</v>
+        <v>0.0005021200624860522</v>
       </c>
       <c r="F103">
-        <v>8.2221286057135384E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G103">
-        <v>5.5623904074115389E-2</v>
+        <v>4.262315045972112e-05</v>
       </c>
       <c r="H103">
-        <v>4.8714176481194998E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.8805763676097959E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C104">
-        <v>0.34955472252241548</v>
+        <v>0.0004915413918813746</v>
       </c>
       <c r="D104">
-        <v>0.16621192177272251</v>
+        <v>0.0002337260351852437</v>
       </c>
       <c r="E104">
-        <v>5.1577881021822002E-2</v>
+        <v>7.252845347020755e-05</v>
       </c>
       <c r="F104">
-        <v>0.1344140536942372</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G104">
-        <v>0.27279922708965232</v>
+        <v>0.0003836083541374901</v>
       </c>
       <c r="H104">
-        <v>6.6364302230525708E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.19998283523666441</v>
+        <v>0.001956895411873595</v>
       </c>
       <c r="C105">
-        <v>0.12558136805392439</v>
+        <v>0.001228853479703437</v>
       </c>
       <c r="D105">
-        <v>0.30211780952899242</v>
+        <v>0.002956318499099839</v>
       </c>
       <c r="E105">
-        <v>2.3376206105467302E-2</v>
+        <v>0.0002287435840214238</v>
       </c>
       <c r="F105">
-        <v>7.7263556912813947E-2</v>
+        <v>0.0007560483870967742</v>
       </c>
       <c r="G105">
-        <v>5.6003493971268177E-3</v>
+        <v>5.480119344821287e-05</v>
       </c>
       <c r="H105">
-        <v>0.26607787476501071</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.002603656317366108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.705817472939106E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D106">
-        <v>3.2036952432227948E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E106">
-        <v>4.2442616782948937E-2</v>
+        <v>1.673733541620174e-05</v>
       </c>
       <c r="G106">
-        <v>0.7874690905863001</v>
+        <v>0.0003105400962065396</v>
       </c>
       <c r="H106">
-        <v>7.0993165469131911E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.22236313906192989</v>
+        <v>0.001269337564458548</v>
       </c>
       <c r="C107">
-        <v>0.2080954145035257</v>
+        <v>0.001187891697046655</v>
       </c>
       <c r="D107">
-        <v>0.1172996987598372</v>
+        <v>0.0006695935062063738</v>
       </c>
       <c r="E107">
-        <v>6.1898920429820474E-3</v>
+        <v>3.533437476753701e-05</v>
       </c>
       <c r="F107">
-        <v>0.25385273382820139</v>
+        <v>0.001449092741935484</v>
       </c>
       <c r="G107">
-        <v>0.1578682832177406</v>
+        <v>0.0009011751811483894</v>
       </c>
       <c r="H107">
-        <v>3.4330838585783098E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001959741314146533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1911028150145303</v>
+        <v>0.0001322226629644321</v>
       </c>
       <c r="C108">
-        <v>0.47361998605821248</v>
+        <v>0.0003276942612542498</v>
       </c>
       <c r="D108">
-        <v>0.118688845389682</v>
+        <v>8.211995830832885e-05</v>
       </c>
       <c r="E108">
-        <v>5.3756995832585459E-3</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="G108">
-        <v>0.21121265395431671</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.000146136515861901</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>9.3741415615357079E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D109">
-        <v>0.26870900842005452</v>
+        <v>7.580303843845741e-05</v>
       </c>
       <c r="E109">
-        <v>3.2961686672382723E-2</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="F109">
-        <v>0.2233386864601013</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G109">
-        <v>0.2158455599765407</v>
+        <v>6.089021494245874e-05</v>
       </c>
       <c r="H109">
-        <v>0.16540364285556369</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.11730245737573</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C110">
-        <v>0.1816979652506136</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D110">
-        <v>2.8020545312297331E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E110">
-        <v>2.4747781888324199E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="G110">
-        <v>0.64823125017303485</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.000146136515861901</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.20247603869744049</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="D111">
-        <v>4.8366327048063637E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E111">
-        <v>4.9836736427328353E-2</v>
+        <v>1.301792754593469e-05</v>
       </c>
       <c r="G111">
-        <v>0.69932089782716744</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001826706448273762</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.41197591666523148</v>
+        <v>0.0004760015866719556</v>
       </c>
       <c r="C112">
-        <v>0.28361700348531482</v>
+        <v>0.0003276942612542498</v>
       </c>
       <c r="D112">
-        <v>0.18041919309313559</v>
+        <v>0.0002084583557057579</v>
       </c>
       <c r="E112">
-        <v>8.0478012558661931E-3</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="G112">
-        <v>0.1159400855004519</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001339584728734092</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1152408575816654</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D113">
-        <v>2.752808205331907E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E113">
-        <v>0.26744121470630128</v>
+        <v>6.137022985940639e-05</v>
       </c>
       <c r="F113">
-        <v>0.54912210552553886</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="H113">
-        <v>4.0667740133175402E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.23900748189912741</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D114">
-        <v>5.709275087972903E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E114">
-        <v>0.1344650439338764</v>
+        <v>1.487763148106821e-05</v>
       </c>
       <c r="F114">
-        <v>0.56943472328726707</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.300403225806451e-05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1660410477811019</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="C115">
-        <v>0.25719257042732852</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D115">
-        <v>0.13882030116830349</v>
+        <v>4.421843908910016e-05</v>
       </c>
       <c r="E115">
-        <v>0.1050910882923851</v>
+        <v>3.347467083240348e-05</v>
       </c>
       <c r="F115">
-        <v>0.19779618894412701</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G115">
-        <v>7.6464010495553417E-2</v>
+        <v>2.43560859769835e-05</v>
       </c>
       <c r="H115">
-        <v>5.8594792891200467E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.16123766893562491</v>
+        <v>0.0002380007933359778</v>
       </c>
       <c r="C116">
-        <v>0.1665015210693935</v>
+        <v>0.0002457706959406873</v>
       </c>
       <c r="D116">
-        <v>0.26960877518464088</v>
+        <v>0.0003979659518019014</v>
       </c>
       <c r="E116">
-        <v>5.4175181090618862E-2</v>
+        <v>7.996726921074165e-05</v>
       </c>
       <c r="F116">
-        <v>8.5366297754265436E-2</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G116">
-        <v>0.11137799033308141</v>
+        <v>0.0001644035803446386</v>
       </c>
       <c r="H116">
-        <v>0.15173256563237511</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002239704359024609</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.22705084236421</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C117">
-        <v>0.3516949004220129</v>
+        <v>0.0001638471306271249</v>
       </c>
       <c r="D117">
-        <v>8.13549250245027E-2</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="E117">
-        <v>0.1037873417875789</v>
+        <v>4.835230231347169e-05</v>
       </c>
       <c r="G117">
-        <v>0.19604961648304059</v>
+        <v>9.133532241368812e-05</v>
       </c>
       <c r="H117">
-        <v>4.0062373918654873E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6.3545922567103119E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C118">
-        <v>9.8430715679146533E-2</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D118">
-        <v>0.15179489352041969</v>
+        <v>6.316919869871451e-05</v>
       </c>
       <c r="E118">
-        <v>4.0219633930065897E-2</v>
+        <v>1.673733541620174e-05</v>
       </c>
       <c r="F118">
-        <v>0.30279600074029789</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G118">
-        <v>2.9263704096389259E-2</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H118">
-        <v>0.3139491294665776</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001306494209431022</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.1318191687719516</v>
+        <v>0.0004495570540790691</v>
       </c>
       <c r="C119">
-        <v>0.24021636818914471</v>
+        <v>0.0008192356531356244</v>
       </c>
       <c r="D119">
-        <v>0.1222483639100802</v>
+        <v>0.0004169167114115157</v>
       </c>
       <c r="E119">
-        <v>0.1319632272909306</v>
+        <v>0.0004500483523023134</v>
       </c>
       <c r="F119">
-        <v>3.6948098516895088E-2</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G119">
-        <v>0.2410321794255661</v>
+        <v>0.000822017901723193</v>
       </c>
       <c r="H119">
-        <v>9.577259389543176E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0003266235523577555</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.1112145042995817</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C120">
-        <v>0.51680372917159068</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D120">
-        <v>7.9698868894008679E-2</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E120">
-        <v>0.16424366972004439</v>
+        <v>3.905378263780406e-05</v>
       </c>
       <c r="G120">
-        <v>0.12803922791477451</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.044510747122937e-05</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>4.5730416778011963E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C121">
-        <v>0.2833401401647519</v>
+        <v>0.0001638471306271249</v>
       </c>
       <c r="D121">
-        <v>9.8314401908623839E-2</v>
+        <v>5.685227882884305e-05</v>
       </c>
       <c r="E121">
-        <v>3.2159780377529609E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="F121">
-        <v>0.10895260272558729</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G121">
-        <v>0.34748071877974318</v>
+        <v>0.0002009377093101139</v>
       </c>
       <c r="H121">
-        <v>0.1129657416055288</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.532471047155108e-05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.15540925439108069</v>
+        <v>0.0002115562607430914</v>
       </c>
       <c r="C122">
-        <v>6.0181060856907373E-2</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D122">
-        <v>0.25522255496820179</v>
+        <v>0.0003474305928429298</v>
       </c>
       <c r="E122">
-        <v>5.1913271842769303E-2</v>
+        <v>7.066874953507402e-05</v>
       </c>
       <c r="F122">
-        <v>0.37026215693036268</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="G122">
-        <v>1.7891983665587041E-2</v>
+        <v>2.43560859769835e-05</v>
       </c>
       <c r="H122">
-        <v>8.9119717345090999E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001213173194471663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1629709309530544</v>
+        <v>0.0001322226629644321</v>
       </c>
       <c r="D123">
-        <v>0.1712901128679126</v>
+        <v>0.0001389722371371719</v>
       </c>
       <c r="E123">
-        <v>0.32548906384978982</v>
+        <v>0.0002640779587889608</v>
       </c>
       <c r="F123">
-        <v>7.7655566456524078E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G123">
-        <v>9.0060219263078625E-2</v>
+        <v>7.30682579309505e-05</v>
       </c>
       <c r="H123">
-        <v>0.17253410660964061</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.000139981522439038</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1242784770311845</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C124">
-        <v>0.19250360909901459</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D124">
-        <v>2.968693729783799E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E124">
-        <v>8.7398471489515787E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="G124">
-        <v>0.60093407287108991</v>
+        <v>0.0001278694513791634</v>
       </c>
       <c r="H124">
-        <v>4.3857056551921417E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.21630040126126721</v>
+        <v>0.0006346687822292741</v>
       </c>
       <c r="C125">
-        <v>0.16752139584841719</v>
+        <v>0.0004915413918813746</v>
       </c>
       <c r="D125">
-        <v>0.1162543777253615</v>
+        <v>0.0003411136729730583</v>
       </c>
       <c r="E125">
-        <v>0.1058450297480593</v>
+        <v>0.000310570557167299</v>
       </c>
       <c r="F125">
-        <v>6.4416895111633857E-2</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G125">
-        <v>0.29467686417033639</v>
+        <v>0.0008646410521829142</v>
       </c>
       <c r="H125">
-        <v>3.49850361349247E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001026531164552946</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1782326689905781</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D126">
-        <v>0.17030083390616119</v>
+        <v>2.52676794794858e-05</v>
       </c>
       <c r="E126">
-        <v>6.2670798723115304E-2</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="F126">
-        <v>0.42463888469497929</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G126">
-        <v>0.16415681368516619</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.43560859769835e-05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.30145537041911091</v>
+        <v>0.0001322226629644321</v>
       </c>
       <c r="C127">
-        <v>9.3389053638624334E-2</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D127">
-        <v>0.1152159169441135</v>
+        <v>5.053535895897161e-05</v>
       </c>
       <c r="F127">
-        <v>0.28728666412295062</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G127">
-        <v>0.13882402523776019</v>
+        <v>6.089021494245874e-05</v>
       </c>
       <c r="H127">
-        <v>6.3828969637440461E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.2373518248303241</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C128">
-        <v>0.24510054085825059</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D128">
-        <v>0.1133945138303744</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="E128">
-        <v>5.5638989659790141E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="F128">
-        <v>0.18849670816445541</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G128">
-        <v>0.1821725477675355</v>
+        <v>6.089021494245874e-05</v>
       </c>
       <c r="H128">
-        <v>2.7919965583081231E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.16504710275571249</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C129">
-        <v>0.25565297958904137</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D129">
-        <v>0.27597860670825852</v>
+        <v>4.421843908910016e-05</v>
       </c>
       <c r="E129">
-        <v>3.4820666094104363E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="G129">
-        <v>0.15201257238524671</v>
+        <v>2.43560859769835e-05</v>
       </c>
       <c r="H129">
-        <v>0.11648807246763659</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>3.9737469700880032E-2</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C130">
-        <v>0.4770290922756536</v>
+        <v>0.001269815262360218</v>
       </c>
       <c r="D130">
-        <v>6.8818894042235831E-2</v>
+        <v>0.0001831906762262721</v>
       </c>
       <c r="E130">
-        <v>3.9123361292759978E-2</v>
+        <v>0.0001041434203674775</v>
       </c>
       <c r="G130">
-        <v>0.3682796369343958</v>
+        <v>0.0009803324605735858</v>
       </c>
       <c r="H130">
-        <v>7.0115457540747611E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.8749651144887226E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D131">
-        <v>0.21200013000498469</v>
+        <v>6.316919869871451e-05</v>
       </c>
       <c r="E131">
-        <v>0.63661188336025964</v>
+        <v>0.0001896898013836197</v>
       </c>
       <c r="H131">
-        <v>6.263833548986833E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>9.5025738886520494E-2</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="D132">
-        <v>0.19294327839264119</v>
+        <v>0.0001073876377878147</v>
       </c>
       <c r="E132">
-        <v>6.3485241393180167E-2</v>
+        <v>3.533437476753701e-05</v>
       </c>
       <c r="F132">
-        <v>0.2263985834169463</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G132">
-        <v>0.1203415377091015</v>
+        <v>6.697923643670462e-05</v>
       </c>
       <c r="H132">
-        <v>0.30180562020161028</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001679778269268457</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.1101062346706438</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="C133">
-        <v>0.17055123352600651</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D133">
-        <v>0.26301552471939588</v>
+        <v>6.316919869871451e-05</v>
       </c>
       <c r="E133">
-        <v>7.7431883955783626E-2</v>
+        <v>1.859703935133527e-05</v>
       </c>
       <c r="F133">
-        <v>0.2623278266173385</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="H133">
-        <v>0.1165672965108317</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.25539997285109178</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D134">
-        <v>0.1220169921779355</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E134">
-        <v>0.17960927570787841</v>
+        <v>1.859703935133527e-05</v>
       </c>
       <c r="G134">
-        <v>0.35284478986898998</v>
+        <v>3.653412896547525e-05</v>
       </c>
       <c r="H134">
-        <v>9.0128969394104336E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.40416636278942819</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D135">
-        <v>9.6544967050201991E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E135">
-        <v>0.17053727972419361</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="G135">
-        <v>0.1861237412029742</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H135">
-        <v>0.14262764923320201</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.50389362120828762</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="E136">
-        <v>0.49610637879171238</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.603585509186938e-05</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.51086830969822328</v>
+        <v>0.0003702234563004099</v>
       </c>
       <c r="D137">
-        <v>0.1045999907840018</v>
+        <v>7.580303843845741e-05</v>
       </c>
       <c r="E137">
-        <v>6.6720945235995921E-2</v>
+        <v>4.835230231347169e-05</v>
       </c>
       <c r="F137">
-        <v>0.17387749434078259</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G137">
-        <v>9.2424098800298116E-2</v>
+        <v>6.697923643670462e-05</v>
       </c>
       <c r="H137">
-        <v>5.150916114069827E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.67339578053234928</v>
+        <v>5.288906518577284e-05</v>
       </c>
       <c r="D138">
-        <v>0.16085696245115941</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E138">
-        <v>0.1657472570164914</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.301792754593469e-05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.47395577495565089</v>
+        <v>0.0001322226629644321</v>
       </c>
       <c r="C139">
-        <v>0.14682863744683519</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D139">
-        <v>0.22643173153024779</v>
+        <v>6.316919869871451e-05</v>
       </c>
       <c r="G139">
-        <v>0.15278385606726611</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.262315045972112e-05</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.43011691401163188</v>
+        <v>0.0001057781303715457</v>
       </c>
       <c r="C140">
-        <v>0.1665595287689946</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D140">
-        <v>0.15411583118047309</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="G140">
-        <v>0.17331501206151281</v>
+        <v>4.262315045972112e-05</v>
       </c>
       <c r="H140">
-        <v>7.5892713977387671E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>4.0286543456626807E-2</v>
+        <v>0.0002115562607430914</v>
       </c>
       <c r="C141">
-        <v>0.24961055844219771</v>
+        <v>0.001310777045016999</v>
       </c>
       <c r="D141">
-        <v>8.7813715438000248E-2</v>
+        <v>0.0004611351505006159</v>
       </c>
       <c r="E141">
-        <v>0.10730514932635481</v>
+        <v>0.0005634902923454586</v>
       </c>
       <c r="F141">
-        <v>0.1679695294494456</v>
+        <v>0.0008820564516129032</v>
       </c>
       <c r="G141">
-        <v>0.19596040864738931</v>
+        <v>0.001029044632527553</v>
       </c>
       <c r="H141">
-        <v>0.1510540952399857</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.000793228627154549</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5.4596772368089262E-2</v>
+        <v>2.644453259288642e-05</v>
       </c>
       <c r="D142">
-        <v>7.8250602840060468E-2</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="E142">
-        <v>0.12670356180591519</v>
+        <v>6.137022985940639e-05</v>
       </c>
       <c r="F142">
-        <v>0.39023001772290111</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G142">
-        <v>0.1382837874815335</v>
+        <v>6.697923643670462e-05</v>
       </c>
       <c r="H142">
-        <v>0.21193525778150049</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001026531164552946</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9.2422246045659059E-2</v>
+        <v>7.933359777865926e-05</v>
       </c>
       <c r="C143">
-        <v>9.5439512669932627E-2</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D143">
-        <v>2.20773016279751E-2</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E143">
-        <v>0.13215786486598499</v>
+        <v>0.0001134419400431451</v>
       </c>
       <c r="F143">
-        <v>0.4403915365696317</v>
+        <v>0.0003780241935483871</v>
       </c>
       <c r="G143">
-        <v>0.16315286769973361</v>
+        <v>0.0001400474943676551</v>
       </c>
       <c r="H143">
-        <v>5.4358670521082737E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C144">
-        <v>0.37643862184667959</v>
+        <v>0.001024044566419531</v>
       </c>
       <c r="D144">
-        <v>7.6629258830667027E-2</v>
+        <v>0.0002084583557057579</v>
       </c>
       <c r="E144">
-        <v>8.6136986198617607E-2</v>
+        <v>0.0002343226958268244</v>
       </c>
       <c r="F144">
-        <v>0.115801361833959</v>
+        <v>0.0003150201612903226</v>
       </c>
       <c r="G144">
-        <v>0.33127185511079882</v>
+        <v>0.0009011751811483894</v>
       </c>
       <c r="H144">
-        <v>1.3721916179277869E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C145">
-        <v>0.53359290493955935</v>
+        <v>0.0007782738704788432</v>
       </c>
       <c r="D145">
-        <v>0.15158317823858711</v>
+        <v>0.0002210921954455008</v>
       </c>
       <c r="F145">
-        <v>4.3196239615242542E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G145">
-        <v>0.25883129964521728</v>
+        <v>0.0003775193326432442</v>
       </c>
       <c r="H145">
-        <v>1.279637756139365E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C146">
-        <v>0.42961155382524541</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D146">
-        <v>0.15458923816840911</v>
+        <v>4.421843908910016e-05</v>
       </c>
       <c r="G146">
-        <v>0.38317384875609989</v>
+        <v>0.0001096023868964257</v>
       </c>
       <c r="H146">
-        <v>3.2625359250245643E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C147">
-        <v>0.24959657390837309</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D147">
-        <v>0.26944068798696053</v>
+        <v>4.421843908910016e-05</v>
       </c>
       <c r="E147">
-        <v>6.7991532680485522E-2</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="G147">
-        <v>0.1855142531457441</v>
+        <v>3.044510747122937e-05</v>
       </c>
       <c r="H147">
-        <v>0.22745695227843679</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C148">
-        <v>0.7110276602997313</v>
+        <v>0.0006963503051652808</v>
       </c>
       <c r="D148">
-        <v>9.6750975523221233E-2</v>
+        <v>9.475379804807176e-05</v>
       </c>
       <c r="E148">
-        <v>6.4562665591375953E-2</v>
+        <v>6.32299337945399e-05</v>
       </c>
       <c r="G148">
-        <v>0.11812989929727299</v>
+        <v>0.0001156914083906716</v>
       </c>
       <c r="H148">
-        <v>9.5287992883983548E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C149">
-        <v>0.49467692413840691</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="E149">
-        <v>0.50532307586159309</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8.36866770810087e-05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C150">
-        <v>0.1754339426164693</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D150">
-        <v>0.13527269641185891</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E150">
-        <v>0.22301630504850889</v>
+        <v>5.207171018373875e-05</v>
       </c>
       <c r="F150">
-        <v>0.26983800662146318</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G150">
-        <v>0.1564708825828118</v>
+        <v>3.653412896547525e-05</v>
       </c>
       <c r="H150">
-        <v>3.9968166718887838E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C151">
-        <v>0.4488805825913017</v>
+        <v>0.0001638471306271249</v>
       </c>
       <c r="D151">
-        <v>1.7306025809041801E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="G151">
-        <v>0.53381339159965646</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.000194848687815868</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C152">
-        <v>0.38826744819306119</v>
+        <v>0.0004915413918813746</v>
       </c>
       <c r="D152">
-        <v>2.4948604520643711E-2</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="G152">
-        <v>0.58678394728629513</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0007428606222979967</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C153">
-        <v>0.41523082244177589</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D153">
-        <v>0.2881566299688566</v>
+        <v>5.685227882884305e-05</v>
       </c>
       <c r="E153">
-        <v>1.88518747085306E-2</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="G153">
-        <v>0.27776067288083689</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.480119344821287e-05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C154">
-        <v>0.31988993863996551</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D154">
-        <v>0.14799544686555971</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E154">
-        <v>7.261653901675108E-2</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="G154">
-        <v>9.5104098788497571E-2</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H154">
-        <v>0.36439397668922602</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C155">
-        <v>0.2502521506108728</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D155">
-        <v>0.13507419307679061</v>
+        <v>4.421843908910016e-05</v>
       </c>
       <c r="E155">
-        <v>1.7042528879890759E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="G155">
-        <v>0.4836039383012975</v>
+        <v>0.0001583145588503927</v>
       </c>
       <c r="H155">
-        <v>0.1140271891311485</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C156">
-        <v>0.33752117555633948</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D156">
-        <v>0.2082032648079824</v>
+        <v>2.52676794794858e-05</v>
       </c>
       <c r="E156">
-        <v>0.153237827472605</v>
+        <v>1.859703935133527e-05</v>
       </c>
       <c r="G156">
-        <v>0.30103773216307311</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.653412896547525e-05</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C157">
-        <v>0.70370154307306165</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="E157">
-        <v>0.19169232058739849</v>
+        <v>2.231644722160232e-05</v>
       </c>
       <c r="G157">
-        <v>0.10460613633954</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.217804298849175e-05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C158">
-        <v>0.46974957851635868</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D158">
-        <v>0.18110603676952511</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="G158">
-        <v>0.3491443847141163</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.089021494245874e-05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C159">
-        <v>9.6484587179420891E-2</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D159">
-        <v>1.4879367213993249E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E159">
-        <v>8.7609842550442699E-3</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="F159">
-        <v>0.1484046261851816</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G159">
-        <v>0.73147043516636012</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0003105400962065396</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C160">
-        <v>0.66129023527508046</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D160">
-        <v>0.30594255103320572</v>
+        <v>5.685227882884305e-05</v>
       </c>
       <c r="G160">
-        <v>3.2767213691713939E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.089021494245875e-06</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C161">
-        <v>0.18095606677726139</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D161">
-        <v>8.3718400396069925E-2</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E161">
-        <v>0.41077888661694589</v>
+        <v>9.298519675667633e-05</v>
       </c>
       <c r="G161">
-        <v>0.24209416138403181</v>
+        <v>5.480119344821287e-05</v>
       </c>
       <c r="H161">
-        <v>8.2452484825690966E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C162">
-        <v>0.79641575919062368</v>
+        <v>0.0005734649571949371</v>
       </c>
       <c r="D162">
-        <v>1.7545604036620709E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="G162">
-        <v>0.18603863677275559</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001339584728734092</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C163">
-        <v>0.32670201328433718</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D163">
-        <v>0.45344105525911821</v>
+        <v>5.685227882884305e-05</v>
       </c>
       <c r="E163">
-        <v>7.416291239223502E-2</v>
+        <v>9.298519675667634e-06</v>
       </c>
       <c r="G163">
-        <v>0.14569401906430959</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.826706448273762e-05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C164">
-        <v>0.7447064912011172</v>
+        <v>0.0001638471306271249</v>
       </c>
       <c r="D164">
-        <v>0.17226732797156949</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="G164">
-        <v>8.3026180827313251E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.826706448273762e-05</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C165">
-        <v>0.40329618780261561</v>
+        <v>0.0001228853479703437</v>
       </c>
       <c r="D165">
-        <v>0.14512005059805819</v>
+        <v>4.421843908910016e-05</v>
       </c>
       <c r="G165">
-        <v>0.35970297142392699</v>
+        <v>0.0001096023868964257</v>
       </c>
       <c r="H165">
-        <v>9.1880790175399227E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C166">
-        <v>0.56485888821416075</v>
+        <v>0.001638471306271249</v>
       </c>
       <c r="D166">
-        <v>8.0576466536902702E-2</v>
+        <v>0.0002337260351852437</v>
       </c>
       <c r="E166">
-        <v>0.14617724878457591</v>
+        <v>0.0004240124972104441</v>
       </c>
       <c r="F166">
-        <v>2.1720482670697309E-2</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G166">
-        <v>0.14484307109238401</v>
+        <v>0.0004201424831029654</v>
       </c>
       <c r="H166">
-        <v>4.1823842701279423E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001213173194471663</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C167">
-        <v>0.27857054086900512</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D167">
-        <v>4.2959746149742732E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E167">
-        <v>0.43001050525178669</v>
+        <v>6.32299337945399e-05</v>
       </c>
       <c r="G167">
-        <v>0.24845920772946559</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.653412896547525e-05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C168">
-        <v>7.1696278131071517E-2</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D168">
-        <v>4.4226556028270719E-2</v>
+        <v>5.053535895897161e-05</v>
       </c>
       <c r="E168">
-        <v>1.627539647041071E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="G168">
-        <v>0.85794836302816069</v>
+        <v>0.0009803324605735858</v>
       </c>
       <c r="H168">
-        <v>2.450126316545604E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C169">
-        <v>0.7193076222263739</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D169">
-        <v>0.16639199944486091</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E169">
-        <v>0.1143003783287652</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.301792754593469e-05</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C170">
-        <v>0.30119325947268921</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D170">
-        <v>0.1393455237075284</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E170">
-        <v>8.2046764600611041E-2</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="G170">
-        <v>0.1343182922153095</v>
+        <v>1.826706448273762e-05</v>
       </c>
       <c r="H170">
-        <v>0.34309616000386173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C171">
-        <v>0.12741109084269919</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D171">
-        <v>9.8243484436461789E-2</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E171">
-        <v>0.26030631784837233</v>
+        <v>8.36866770810087e-05</v>
       </c>
       <c r="F171">
-        <v>0.19597322081292951</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G171">
-        <v>5.6819465884603612E-2</v>
+        <v>1.826706448273762e-05</v>
       </c>
       <c r="H171">
-        <v>0.26124642017493349</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8.398891346342283e-05</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C172">
-        <v>0.52701717347486476</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D172">
-        <v>8.1273934847552964E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="G172">
-        <v>0.39170889167758238</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.089021494245874e-05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C173">
-        <v>0.1701377355575564</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D173">
-        <v>0.18366449428108</v>
+        <v>4.421843908910016e-05</v>
       </c>
       <c r="E173">
-        <v>5.4070906358637157E-2</v>
+        <v>1.301792754593469e-05</v>
       </c>
       <c r="F173">
-        <v>0.2616918181808609</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G173">
-        <v>0.25291192462805973</v>
+        <v>6.089021494245874e-05</v>
       </c>
       <c r="H173">
-        <v>7.7523120993805816E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C174">
-        <v>0.13246073843394399</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D174">
-        <v>0.102137140563718</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E174">
-        <v>1.202768729966479E-2</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="G174">
-        <v>0.51195192225588959</v>
+        <v>0.0001583145588503927</v>
       </c>
       <c r="H174">
-        <v>0.2414225114467837</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.465681196748696e-05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C175">
-        <v>3.5640488777753297E-2</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D175">
-        <v>0.18687408853835261</v>
+        <v>0.0002147752755756293</v>
       </c>
       <c r="E175">
-        <v>0.26860661295877852</v>
+        <v>0.0003087108532321654</v>
       </c>
       <c r="F175">
-        <v>0.27409628670970621</v>
+        <v>0.0003150201612903226</v>
       </c>
       <c r="G175">
-        <v>3.178802603171009E-2</v>
+        <v>3.653412896547525e-05</v>
       </c>
       <c r="H175">
-        <v>0.20299449698369951</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002333025373983967</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C176">
-        <v>0.2045359742299179</v>
+        <v>0.0004915413918813746</v>
       </c>
       <c r="D176">
-        <v>0.226054641116436</v>
+        <v>0.0005432551088089448</v>
       </c>
       <c r="E176">
-        <v>1.238150397697683E-2</v>
+        <v>2.975526296213643e-05</v>
       </c>
       <c r="F176">
-        <v>5.2433391495243058E-2</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G176">
-        <v>0.2483037003033087</v>
+        <v>0.0005967241064360957</v>
       </c>
       <c r="H176">
-        <v>0.2562907888781174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0006159186987317675</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C177">
-        <v>0.21547776208588401</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D177">
-        <v>0.16614947745815631</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E177">
-        <v>9.7828955698182809E-3</v>
+        <v>1.859703935133527e-06</v>
       </c>
       <c r="G177">
-        <v>0.60858986488614153</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001156914083906716</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C178">
-        <v>0.25459589089979612</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D178">
-        <v>0.19631248174526139</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E178">
-        <v>9.2471166920132741E-2</v>
+        <v>1.487763148106821e-05</v>
       </c>
       <c r="G178">
-        <v>0.34061404956969188</v>
+        <v>5.480119344821287e-05</v>
       </c>
       <c r="H178">
-        <v>0.116006410865118</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C179">
-        <v>0.59341672333458384</v>
+        <v>8.192356531356245e-05</v>
       </c>
       <c r="D179">
-        <v>9.1513739090788013E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E179">
-        <v>2.6941684272050879E-2</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="G179">
-        <v>0.22053039132264499</v>
+        <v>3.044510747122937e-05</v>
       </c>
       <c r="H179">
-        <v>6.759746197993223E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C180">
-        <v>0.1084526763089458</v>
+        <v>4.096178265678122e-05</v>
       </c>
       <c r="D180">
-        <v>0.13380020526099839</v>
+        <v>5.053535895897161e-05</v>
       </c>
       <c r="E180">
-        <v>1.477156430891706E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="F180">
-        <v>0.3336259055859746</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G180">
-        <v>0.11285140538946629</v>
+        <v>4.262315045972112e-05</v>
       </c>
       <c r="H180">
-        <v>0.29649824314569773</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001119852179512304</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C181">
-        <v>0.66949939607273501</v>
+        <v>0.0001638471306271249</v>
       </c>
       <c r="D181">
-        <v>5.1623412893855788E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E181">
-        <v>1.519795502894042E-2</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="G181">
-        <v>0.14928291502457239</v>
+        <v>3.653412896547525e-05</v>
       </c>
       <c r="H181">
-        <v>0.1143963209798964</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D182">
-        <v>0.16324160704944321</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E182">
-        <v>0.6007299943270219</v>
+        <v>4.649259837833817e-05</v>
       </c>
       <c r="G182">
-        <v>0.23602839862353489</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.826706448273762e-05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D183">
-        <v>0.20715918919283349</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E183">
-        <v>0.79284081080716651</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.417615115673585e-05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D184">
-        <v>2.8543742722915121E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="F184">
-        <v>0.85407330993278963</v>
+        <v>0.0003780241935483871</v>
       </c>
       <c r="G184">
-        <v>9.6298850216944371E-2</v>
+        <v>4.262315045972112e-05</v>
       </c>
       <c r="H184">
-        <v>2.108409712735089E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D185">
-        <v>0.53101068005747387</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="E185">
-        <v>0.46898931994252618</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.347467083240348e-05</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D186">
-        <v>4.669502240300525E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E186">
-        <v>8.2482208452440822E-2</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="F186">
-        <v>0.46572930453047789</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G186">
-        <v>0.40509346461407608</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.480119344821287e-05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D187">
-        <v>0.18993170563120429</v>
+        <v>2.52676794794858e-05</v>
       </c>
       <c r="E187">
-        <v>0.18172692227335849</v>
+        <v>2.417615115673585e-05</v>
       </c>
       <c r="G187">
-        <v>0.1373095901781699</v>
+        <v>1.826706448273762e-05</v>
       </c>
       <c r="H187">
-        <v>0.49103178191726748</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.532471047155108e-05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D188">
-        <v>0.19712538041999819</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E188">
-        <v>3.8689198030434441E-2</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="G188">
-        <v>0.57004079670074548</v>
+        <v>5.480119344821287e-05</v>
       </c>
       <c r="H188">
-        <v>0.19414462484882189</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D189">
-        <v>1.454493413078994E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E189">
-        <v>0.97844497088785864</v>
+        <v>0.0008498846983560217</v>
       </c>
       <c r="G189">
-        <v>7.0100949813514633E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.089021494245875e-06</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D190">
-        <v>9.307514271581685E-2</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="G190">
-        <v>0.44858614344600217</v>
+        <v>9.133532241368812e-05</v>
       </c>
       <c r="H190">
-        <v>0.45833871383818098</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.33210149593587e-05</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D191">
-        <v>0.12508781223660659</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E191">
-        <v>0.83472053354651055</v>
+        <v>0.0001264598675890798</v>
       </c>
       <c r="G191">
-        <v>4.0191654216882859E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.089021494245875e-06</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D192">
-        <v>0.2234654353583265</v>
+        <v>5.053535895897161e-05</v>
       </c>
       <c r="E192">
-        <v>2.4670620218980061E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="G192">
-        <v>0.21540337176155319</v>
+        <v>4.8712171953967e-05</v>
       </c>
       <c r="H192">
-        <v>0.53646057266114022</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001213173194471663</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D193">
-        <v>0.42125329357110591</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E193">
-        <v>0.57874670642889414</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.603585509186938e-05</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D194">
-        <v>0.15525522588341981</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E194">
-        <v>0.15235735161716621</v>
+        <v>1.859703935133527e-05</v>
       </c>
       <c r="F194">
-        <v>0.51616428371712819</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G194">
-        <v>9.9769341912662235E-2</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H194">
-        <v>7.6453796869623641E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D195">
-        <v>0.19305249797752491</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="E195">
-        <v>0.35995334508313459</v>
+        <v>7.066874953507402e-05</v>
       </c>
       <c r="F195">
-        <v>0.32091288319401118</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G195">
-        <v>3.101460928000576E-2</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H195">
-        <v>9.5066664465323705E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D196">
-        <v>4.127263320739518E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E196">
-        <v>8.5054767163722497E-2</v>
+        <v>2.603585509186938e-05</v>
       </c>
       <c r="F196">
-        <v>0.82329438002730515</v>
+        <v>0.0002520161290322581</v>
       </c>
       <c r="G196">
-        <v>1.9891810874677871E-2</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H196">
-        <v>3.048640872689929E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D197">
-        <v>0.23124369822674271</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E197">
-        <v>0.20423473358505079</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="G197">
-        <v>0.22290101472194179</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H197">
-        <v>0.34162055346626458</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D198">
-        <v>0.1587501217816433</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E198">
-        <v>0.84124987821835673</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.347467083240348e-05</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D199">
-        <v>2.7648344300830671E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E199">
-        <v>6.5117475928631999E-2</v>
+        <v>1.487763148106821e-05</v>
       </c>
       <c r="F199">
-        <v>0.82728159234053678</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G199">
-        <v>7.995258743000061E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.826706448273762e-05</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D200">
-        <v>0.76435244389912005</v>
+        <v>0.0001516060768769148</v>
       </c>
       <c r="E200">
-        <v>1.8752140772063872E-2</v>
+        <v>3.719407870267054e-06</v>
       </c>
       <c r="G200">
-        <v>0.1227960925038566</v>
+        <v>2.43560859769835e-05</v>
       </c>
       <c r="H200">
-        <v>9.4099322824959503E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D201">
-        <v>3.9414012360291593E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E201">
-        <v>8.7026266830729199E-2</v>
+        <v>2.78955590270029e-05</v>
       </c>
       <c r="F201">
-        <v>0.78621915658971275</v>
+        <v>0.0002520161290322581</v>
       </c>
       <c r="H201">
-        <v>8.7340564219266503E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D202">
-        <v>4.5033882294485662E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E202">
-        <v>0.1325799437742422</v>
+        <v>1.859703935133527e-05</v>
       </c>
       <c r="F202">
-        <v>0.44916133673314967</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G202">
-        <v>0.17363669820686969</v>
+        <v>2.43560859769835e-05</v>
       </c>
       <c r="H202">
-        <v>0.19958813899125261</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D203">
-        <v>0.16313931136547341</v>
+        <v>2.52676794794858e-05</v>
       </c>
       <c r="E203">
-        <v>4.8028283652665447E-2</v>
+        <v>7.438815740534107e-06</v>
       </c>
       <c r="G203">
-        <v>0.66832805768905124</v>
+        <v>0.0001035133654021799</v>
       </c>
       <c r="H203">
-        <v>0.1205043472928099</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D204">
-        <v>0.4209390689900277</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E204">
-        <v>0.37177393057613439</v>
+        <v>1.673733541620174e-05</v>
       </c>
       <c r="H204">
-        <v>0.20728700043383799</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D205">
-        <v>7.8480443003023675E-2</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E205">
-        <v>0.1001202638825148</v>
+        <v>2.417615115673585e-05</v>
       </c>
       <c r="F205">
-        <v>0.78275242751976204</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="H205">
-        <v>3.8646865594699563E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001516060768769148</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D207">
-        <v>6.1778884961183479E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E207">
-        <v>0.55472577680818003</v>
+        <v>0.0001134419400431451</v>
       </c>
       <c r="F207">
-        <v>0.30808676864226781</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G207">
-        <v>2.9775030091274891E-2</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H207">
-        <v>4.5633539497093763E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D208">
-        <v>1.5193774609519751E-2</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E208">
-        <v>0.94381435188790663</v>
+        <v>0.0007847950606263483</v>
       </c>
       <c r="G208">
-        <v>7.3228109649882012E-3</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H208">
-        <v>3.3669062537585379E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D209">
-        <v>0.25925960222753092</v>
+        <v>1.895075960961435e-05</v>
       </c>
       <c r="E209">
-        <v>0.2798625087634965</v>
+        <v>2.045674328646879e-05</v>
       </c>
       <c r="G209">
-        <v>0.33320823504133862</v>
+        <v>2.43560859769835e-05</v>
       </c>
       <c r="H209">
-        <v>0.12766965396763399</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D210">
-        <v>6.3714994896791916E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E210">
-        <v>0.1125463319252025</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="F210">
-        <v>0.63548401380649211</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="H210">
-        <v>0.18825465937151359</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D211">
-        <v>2.2508217392581631E-2</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E211">
-        <v>7.9517146938911723E-2</v>
+        <v>2.231644722160232e-05</v>
       </c>
       <c r="F211">
-        <v>0.89797463566850666</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0002520161290322581</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D212">
-        <v>0.21302668016606799</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E212">
-        <v>0.37629087930918748</v>
+        <v>2.231644722160232e-05</v>
       </c>
       <c r="G212">
-        <v>0.4106824405247444</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.43560859769835e-05</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D213">
-        <v>5.5637641133008002E-2</v>
+        <v>5.053535895897161e-05</v>
       </c>
       <c r="G213">
-        <v>4.0222782589481962E-2</v>
+        <v>3.653412896547525e-05</v>
       </c>
       <c r="H213">
-        <v>0.90413957627750996</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0008212249316423565</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D214">
-        <v>0.22664709514697279</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E214">
-        <v>5.3380002078764463E-2</v>
+        <v>7.438815740534107e-06</v>
       </c>
       <c r="F214">
-        <v>0.45210897677975709</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="H214">
-        <v>0.26786392599450548</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D215">
-        <v>0.58782223196481975</v>
+        <v>5.053535895897161e-05</v>
       </c>
       <c r="E215">
-        <v>8.6527559353558353E-2</v>
+        <v>7.438815740534107e-06</v>
       </c>
       <c r="H215">
-        <v>0.32565020868162181</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D216">
-        <v>0.2419418019123046</v>
+        <v>4.421843908910016e-05</v>
       </c>
       <c r="E216">
-        <v>0.14245554173818109</v>
+        <v>2.603585509186938e-05</v>
       </c>
       <c r="F216">
-        <v>0.3447274351213942</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G216">
-        <v>6.663233088043316E-2</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H216">
-        <v>0.20424289034768681</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D217">
-        <v>0.16703795713522501</v>
+        <v>1.26338397397429e-05</v>
       </c>
       <c r="E217">
-        <v>0.2212922099221028</v>
+        <v>1.673733541620174e-05</v>
       </c>
       <c r="G217">
-        <v>0.24151747979320279</v>
+        <v>1.826706448273762e-05</v>
       </c>
       <c r="H217">
-        <v>0.37015235314946948</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D218">
-        <v>0.16206441432473609</v>
+        <v>3.158459934935725e-05</v>
       </c>
       <c r="E218">
-        <v>3.816946680008531E-2</v>
+        <v>7.438815740534107e-06</v>
       </c>
       <c r="G218">
-        <v>0.65611368118276092</v>
+        <v>0.0001278694513791634</v>
       </c>
       <c r="H218">
-        <v>0.1436524376924177</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.799630448780761e-05</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D219">
-        <v>0.1433887864361377</v>
+        <v>6.316919869871451e-06</v>
       </c>
       <c r="E219">
-        <v>0.50656464710494942</v>
+        <v>2.231644722160232e-05</v>
       </c>
       <c r="G219">
-        <v>0.1382156843254751</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H219">
-        <v>0.2118308821334377</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D220">
-        <v>0.62940549904603604</v>
+        <v>2.52676794794858e-05</v>
       </c>
       <c r="E220">
-        <v>0.3705945009539639</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.487763148106821e-05</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D221">
-        <v>0.47435013550374372</v>
+        <v>3.79015192192287e-05</v>
       </c>
       <c r="E221">
-        <v>0.1396488845512909</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="G221">
-        <v>0.15241226369709179</v>
+        <v>1.217804298849175e-05</v>
       </c>
       <c r="H221">
-        <v>0.23358871624787361</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.866420299187174e-05</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E222">
-        <v>0.2339625329439419</v>
+        <v>1.115822361080116e-05</v>
       </c>
       <c r="G222">
-        <v>0.76603746705605813</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.653412896547525e-05</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0004277319050807112</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E224">
-        <v>0.20206744459234169</v>
+        <v>4.835230231347169e-05</v>
       </c>
       <c r="F224">
-        <v>0.52659597116447932</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="G224">
-        <v>7.6339261288947954E-2</v>
+        <v>1.826706448273762e-05</v>
       </c>
       <c r="H224">
-        <v>0.19499732295423111</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.666050747967935e-05</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.533437476753701e-05</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.78955590270029e-05</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.533437476753701e-05</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
       <c r="E228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.347467083240348e-05</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E229">
-        <v>0.7361424748198897</v>
+        <v>2.603585509186938e-05</v>
       </c>
       <c r="H229">
-        <v>0.2638575251801103</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0001636539462917503</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.859703935133527e-05</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E232">
-        <v>4.2037835305997848E-2</v>
+        <v>5.579111805400581e-06</v>
       </c>
       <c r="F232">
-        <v>0.47472666332201707</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G232">
-        <v>0.41291940816064959</v>
+        <v>5.480119344821287e-05</v>
       </c>
       <c r="H232">
-        <v>7.0316093211335293E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.045674328646879e-05</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
       <c r="E234">
-        <v>0.57017725437541211</v>
+        <v>2.045674328646879e-05</v>
       </c>
       <c r="G234">
-        <v>0.16971526253244981</v>
+        <v>6.089021494245875e-06</v>
       </c>
       <c r="H234">
-        <v>0.26010748309213799</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.332101495935871e-06</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.231644722160232e-05</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
       <c r="E236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.78955590270029e-05</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.438815740534107e-05</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.231644722160232e-05</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.417615115673585e-05</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.859703935133527e-05</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.603585509186938e-05</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
       <c r="E242">
-        <v>0.58245685146748105</v>
+        <v>5.207171018373875e-05</v>
       </c>
       <c r="H242">
-        <v>0.41754314853251889</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.732840598374348e-05</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.533437476753701e-05</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
       <c r="E244">
-        <v>0.70958543066387259</v>
+        <v>2.975526296213643e-05</v>
       </c>
       <c r="G244">
-        <v>0.29041456933612741</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.217804298849175e-05</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E245">
-        <v>0.85935430411610725</v>
+        <v>0.00038495871457264</v>
       </c>
       <c r="F245">
-        <v>0.14064569588389281</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.300403225806451e-05</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E246">
-        <v>0.73298454277848624</v>
+        <v>0.000172952465967418</v>
       </c>
       <c r="F246">
-        <v>0.26701545722151382</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.300403225806451e-05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.975526296213643e-05</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E248">
-        <v>0.38139856751019802</v>
+        <v>6.137022985940639e-05</v>
       </c>
       <c r="F248">
-        <v>0.39155218589928448</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G248">
-        <v>0.2270492465905174</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.653412896547525e-05</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.231644722160232e-05</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
       <c r="E250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.045674328646879e-05</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.835230231347169e-05</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
       <c r="E252">
-        <v>0.26156026498797008</v>
+        <v>2.231644722160232e-05</v>
       </c>
       <c r="F252">
-        <v>0.73843973501202997</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.300403225806451e-05</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E253">
-        <v>0.34696435337666498</v>
+        <v>3.347467083240348e-05</v>
       </c>
       <c r="F253">
-        <v>0.65303564662333491</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.300403225806451e-05</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E254">
-        <v>0.64358627855702433</v>
+        <v>0.0001357583872647475</v>
       </c>
       <c r="F254">
-        <v>0.29868158772377917</v>
+        <v>6.300403225806451e-05</v>
       </c>
       <c r="G254">
-        <v>5.7732133719196527E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.217804298849175e-05</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.045674328646879e-05</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.975526296213643e-05</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.0003012720374916313</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
       <c r="E258">
-        <v>7.085303393232105E-2</v>
+        <v>1.487763148106821e-05</v>
       </c>
       <c r="F258">
-        <v>0.90014869123506025</v>
+        <v>0.0001890120967741935</v>
       </c>
       <c r="G258">
-        <v>2.8998274832618642E-2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.089021494245875e-06</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0.00659779575762666</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>